--- a/na-service/src/test/resources/func/parser/source/real/ITC-Source.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/ITC-Source.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
-  <si>
-    <t>page</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>url</t>
   </si>
@@ -34,9 +31,6 @@
     <t>Author</t>
   </si>
   <si>
-    <t>Смартфоны</t>
-  </si>
-  <si>
     <t>https://itc.ua/tag/smartfoni/</t>
   </si>
   <si>
@@ -58,46 +52,28 @@
     <t>entry-title:EQUALS</t>
   </si>
   <si>
-    <t>Ноутбуки</t>
-  </si>
-  <si>
     <t>https://itc.ua/tag/notebook/</t>
   </si>
   <si>
     <t>Tech</t>
   </si>
   <si>
-    <t>Планшеты</t>
-  </si>
-  <si>
     <t>https://itc.ua/tag/planshety/</t>
   </si>
   <si>
-    <t>Комплектующие</t>
-  </si>
-  <si>
     <t>https://itc.ua/tag/komplektuyushhie/</t>
   </si>
   <si>
-    <t>Игры</t>
-  </si>
-  <si>
     <t>https://itc.ua/tag/igry/</t>
   </si>
   <si>
     <t>Games</t>
   </si>
   <si>
-    <t>Кино</t>
-  </si>
-  <si>
     <t>https://itc.ua/review_cat/kino/</t>
   </si>
   <si>
     <t>Movies</t>
-  </si>
-  <si>
-    <t>Авто</t>
   </si>
   <si>
     <t>https://itc.ua/tag/avto/</t>
@@ -110,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,20 +98,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF282F33"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -159,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -177,9 +148,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -400,12 +368,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="2" max="2" width="30.86"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="5" max="5" width="28.14"/>
-    <col customWidth="1" min="6" max="6" width="25.57"/>
-    <col customWidth="1" min="7" max="7" width="18.0"/>
+    <col customWidth="1" min="1" max="1" width="30.86"/>
+    <col customWidth="1" min="2" max="2" width="27.86"/>
+    <col customWidth="1" min="4" max="4" width="28.14"/>
+    <col customWidth="1" min="5" max="5" width="25.57"/>
+    <col customWidth="1" min="6" max="6" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,224 +392,200 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17">
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4" t="s">
-        <v>12</v>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4" t="s">
-        <v>12</v>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="B8"/>
-    <hyperlink r:id="rId4" ref="B11"/>
-    <hyperlink r:id="rId5" ref="B14"/>
-    <hyperlink r:id="rId6" ref="B16"/>
-    <hyperlink r:id="rId7" ref="B18"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A5"/>
+    <hyperlink r:id="rId3" ref="A8"/>
+    <hyperlink r:id="rId4" ref="A11"/>
+    <hyperlink r:id="rId5" ref="A14"/>
+    <hyperlink r:id="rId6" ref="A16"/>
+    <hyperlink r:id="rId7" ref="A18"/>
   </hyperlinks>
   <drawing r:id="rId8"/>
 </worksheet>
